--- a/dados/outside/resultados_matchesv2.xlsx
+++ b/dados/outside/resultados_matchesv2.xlsx
@@ -402,13 +402,13 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>239.566</v>
+        <v>238.497</v>
       </c>
       <c r="C2">
-        <v>19.89235139444304</v>
+        <v>18.69791408152257</v>
       </c>
       <c r="D2">
-        <v>238.3309687174473</v>
+        <v>237.3361262374536</v>
       </c>
     </row>
     <row r="3" spans="1:4">
@@ -416,13 +416,13 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>239.566</v>
+        <v>238.497</v>
       </c>
       <c r="C3">
-        <v>19.89235139444304</v>
+        <v>18.69791408152257</v>
       </c>
       <c r="D3">
-        <v>240.8010312825527</v>
+        <v>239.6578737625465</v>
       </c>
     </row>
   </sheetData>
